--- a/src/analysis_examples/circadb/results_lomb/cosinor_10383717_inpp5j_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10383717_inpp5j_.xlsx
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2501368441726325, 0.3844871352314554]</t>
+          <t>[0.24882520477796355, 0.38579877462612433]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.644549690344888e-09</v>
+        <v>3.698773953786372e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.644549690344888e-09</v>
+        <v>3.698773953786372e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6918422260157708</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.9056843686024632, -0.4780000834290785]</t>
+          <t>[-0.905684368602464, -0.4780000834290776]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5191170520230889, 0.5896760024318392]</t>
+          <t>[0.5191267461175292, 0.5896663083373989]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.563363363363422</v>
       </c>
       <c r="X2" t="n">
-        <v>1.771051051051093</v>
+        <v>1.77105105105109</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.355675675675751</v>
+        <v>3.355675675675754</v>
       </c>
     </row>
   </sheetData>
